--- a/Cache Simulation Data.xlsx
+++ b/Cache Simulation Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8129fcd4cadd7494/Documents/CDA3101 Programming/Cache Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B320E6-7650-41EF-BC8B-A0AEAE1E3A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F461D59-8A6C-468E-AF3F-786990B9398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{B28ED326-1985-4533-AD1F-C3D7C97D34FA}"/>
   </bookViews>
@@ -155,8 +155,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Hit Rate versus Cache Size Based on DIfferent Designs</a:t>
+              <a:t>Hit Rate versus Cache Size Based</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Different Cache Designs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -191,22 +196,12 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.9988789610338161E-2"/>
-          <c:y val="1.2058221042896531E-2"/>
-          <c:w val="0.93047436569351993"/>
-          <c:h val="0.92492147592418128"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -220,7 +215,106 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65153000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76186900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81890099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94081000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96561300000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97913499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5C1-4685-B7E8-C52EF06214C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fully Associative (FIFO)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -243,7 +337,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -269,57 +363,57 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.65153000000000005</c:v>
+                  <c:v>0.61934599999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76186900000000002</c:v>
+                  <c:v>0.88942399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81890099999999999</c:v>
+                  <c:v>0.95576799999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94081000000000004</c:v>
+                  <c:v>0.97224600000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96561300000000005</c:v>
+                  <c:v>0.98167800000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97913499999999998</c:v>
+                  <c:v>0.985788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000001-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fully Associative (FIFO)</c:v>
+                  <c:v>Fully Associative (LRU)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -342,7 +436,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -368,57 +462,57 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.61934599999999995</c:v>
+                  <c:v>0.65002899999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88942399999999999</c:v>
+                  <c:v>0.91078000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95576799999999995</c:v>
+                  <c:v>0.96718300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97224600000000005</c:v>
+                  <c:v>0.978661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98167800000000005</c:v>
+                  <c:v>0.98665199999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.985788</c:v>
+                  <c:v>0.987981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000002-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fully Associative (LRU)</c:v>
+                  <c:v>2-Way Set Associative (FIFO)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -441,7 +535,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -467,57 +561,57 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.65002899999999997</c:v>
+                  <c:v>0.66593999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91078000000000003</c:v>
+                  <c:v>0.83385900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96718300000000001</c:v>
+                  <c:v>0.916713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.978661</c:v>
+                  <c:v>0.952816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98665199999999997</c:v>
+                  <c:v>0.979904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.987981</c:v>
+                  <c:v>0.98486399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000003-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2-Way Set Associative (FIFO)</c:v>
+                  <c:v>2-Way Set Associative (LRU)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -540,7 +634,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -566,57 +660,57 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.66593999999999998</c:v>
+                  <c:v>0.67926799999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83385900000000002</c:v>
+                  <c:v>0.843866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.916713</c:v>
+                  <c:v>0.92658799999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.952816</c:v>
+                  <c:v>0.95916800000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.979904</c:v>
+                  <c:v>0.98299400000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98486399999999996</c:v>
+                  <c:v>0.986537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000004-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2-Way Set Associative (LRU)</c:v>
+                  <c:v>4-Way Set Associative (FIFO)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -639,7 +733,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -665,57 +759,57 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.67926799999999998</c:v>
+                  <c:v>0.65170799999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.843866</c:v>
+                  <c:v>0.838727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92658799999999997</c:v>
+                  <c:v>0.95314900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95916800000000002</c:v>
+                  <c:v>0.97085999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98299400000000003</c:v>
+                  <c:v>0.98057300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.986537</c:v>
+                  <c:v>0.98558299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000005-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4-Way Set Associative (FIFO)</c:v>
+                  <c:v>4-Way Set Associative (LRU)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -744,7 +838,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -770,57 +864,57 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:f>Sheet1!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.65170799999999995</c:v>
+                  <c:v>0.67129000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.838727</c:v>
+                  <c:v>0.85579899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95314900000000002</c:v>
+                  <c:v>0.96346200000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97085999999999995</c:v>
+                  <c:v>0.97684300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98057300000000003</c:v>
+                  <c:v>0.98505200000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98558299999999999</c:v>
+                  <c:v>0.98765099999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000006-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4-Way Set Associative (LRU)</c:v>
+                  <c:v>8-Way Set Associative (FIFO)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -849,7 +943,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -875,57 +969,57 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$7</c:f>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.67129000000000005</c:v>
+                  <c:v>0.61934599999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85579899999999998</c:v>
+                  <c:v>0.863259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96346200000000004</c:v>
+                  <c:v>0.95543500000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97684300000000002</c:v>
+                  <c:v>0.97227200000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98505200000000004</c:v>
+                  <c:v>0.98119699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98765099999999995</c:v>
+                  <c:v>0.98563999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000007-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8-Way Set Associative (FIFO)</c:v>
+                  <c:v>8-Way Set Associative (LRU)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -954,7 +1048,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
@@ -980,113 +1074,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.61934599999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.863259</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95543500000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97227200000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98119699999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98563999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-1045-4352-A925-FB8D1657F6EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8-Way Set Associative (LRU)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$7</c:f>
               <c:numCache>
@@ -1112,11 +1101,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-1045-4352-A925-FB8D1657F6EE}"/>
+              <c16:uniqueId val="{00000008-E5C1-4685-B7E8-C52EF06214C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1128,18 +1117,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="185043583"/>
-        <c:axId val="339988527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="185043583"/>
+        <c:axId val="1693240192"/>
+        <c:axId val="1400924000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1693240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1195,7 +1196,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1204,8 +1205,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1232,16 +1233,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339988527"/>
+        <c:crossAx val="1400924000"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="339988527"/>
+        <c:axId val="1400924000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -1288,14 +1285,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.2373865434301813E-3"/>
-              <c:y val="0.43060085080987881"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1326,18 +1315,24 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1356,7 +1351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185043583"/>
+        <c:crossAx val="1693240192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1369,7 +1364,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1484,7 +1479,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1511,8 +1506,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1613,7 +1608,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1645,10 +1640,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1688,22 +1683,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1808,8 +1804,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1941,19 +1937,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1967,6 +1964,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1990,23 +1998,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1008063</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>168274</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1404937</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28399047-0439-01AE-5E3D-8C9AE9D7016C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2916B278-0504-39DF-024B-D8328C577532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2339,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2571,6 +2579,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3bda6e03-89e2-4f93-bac0-808db89e6169" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004A7784D224E124793330CDB829B0D79" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa7624f770458596f4807e91338a18a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3bda6e03-89e2-4f93-bac0-808db89e6169" xmlns:ns4="d01c998e-93c5-40f2-9f23-94438fc0846c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dc22837f30b1cdc44e33a61fc061c05" ns3:_="" ns4:_="">
     <xsd:import namespace="3bda6e03-89e2-4f93-bac0-808db89e6169"/>
@@ -2811,24 +2836,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3bda6e03-89e2-4f93-bac0-808db89e6169" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2CDEB8F-45CB-41A8-9BE9-3B8987926691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CDE460A-60F4-4B2D-9A5F-DDF8E69D0928}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3bda6e03-89e2-4f93-bac0-808db89e6169"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d01c998e-93c5-40f2-9f23-94438fc0846c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CB014FD-628A-41B9-9043-FE17E7701E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2845,29 +2878,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CDE460A-60F4-4B2D-9A5F-DDF8E69D0928}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3bda6e03-89e2-4f93-bac0-808db89e6169"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d01c998e-93c5-40f2-9f23-94438fc0846c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2CDEB8F-45CB-41A8-9BE9-3B8987926691}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>